--- a/artifacts/recipes/new_data/allrecipescom/healthy/healthy_desserts.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/healthy/healthy_desserts.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699658333-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Healthy Desserts</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699658342-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/L3b00vpGLWyltRoAyQZoveH3v7I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1532276-70d4d68a8db849fc904a7bb40950c937.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222091/healthier-easy-sugar-cookies/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Healthier Easy Sugar Cookies</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n48 \n\n\nYield:\n4 dozen"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¾ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon baking powder\n\n\n½ cup butter, softened\n\n\n¼ cup nonfat plain yogurt\n\n\n1 ½ cups white sugar\n\n\n1  egg\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¾ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon baking powder\n\n\n½ cup butter, softened\n\n\n¼ cup nonfat plain yogurt\n\n\n1 ½ cups white sugar\n\n\n1  egg\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Stir flour, baking soda, and baking powder in a small bowl."},{"recipe_directions":"Beat butter, yogurt, and sugar with an electric mixer in a large bowl until smooth. Add egg allowing it to blend into butter mixture. Beat in vanilla extract. Mix in flour mixture until just incorporated. Roll dough into walnut-sized balls and place 2-inches apart onto ungreased baking sheets."},{"recipe_directions":"Bake in preheated oven until golden, 8 to 10 minutes. Let stand on baking sheet two minutes before removing to cool on wire racks."},{"recipe_directions":"This recipe is a healthier version of Easy Sugar Cookies."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Sugar Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"70\nCalories\n\n\n2g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699658349-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Yn685wduFwarq3r8B0tvi7-CXEI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(852x0:854x2):format(webp)/5647610-b63bbf8b9aec4c0dbc220b456b0249a0.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22332/barbequed-pineapple/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Barbequed Pineapple</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 30 mins\n\n\nServings:\n4 \n\n\nYield:\n8 slices"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  fresh pineapple\n\n\n¼ cup rum\n\n\n¼ cup brown sugar\n\n\n1 tablespoon ground cinnamon\n\n\n½ teaspoon ground ginger\n\n\n½ teaspoon ground nutmeg\n\n\n½ teaspoon ground cloves"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  fresh pineapple\n\n\n¼ cup rum\n\n\n¼ cup brown sugar\n\n\n1 tablespoon ground cinnamon\n\n\n½ teaspoon ground ginger\n\n\n½ teaspoon ground nutmeg\n\n\n½ teaspoon ground cloves'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel the pineapple and, leaving it whole, cut out the center core. Slice into 8 rings, and place them in a shallow glass dish or resealable plastic bag. In a small bowl, mix together the rum, brown sugar, cinnamon, ginger, nutmeg, and cloves. Pour marinade over the pineapple, cover, and refrigerate for 1 hour, or overnight."},{"recipe_directions":"Preheat grill for high heat. Lightly oil grate."},{"recipe_directions":"Grill pineapple rings 15 minutes, turning once, or until outside is dry and char marked. Serve with remaining marinade."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Pineapple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"151\nCalories\n\n\n0g \nFat\n\n\n31g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699658358-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tng4-uiEeWGqJk7Sx8wn7LkAkwQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Bluberry-Granita-1x1-1-2000-d3d0b2e92f3f433099f3b2ddfa45055c.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214468/blueberry-granita/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Blueberry Granita</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups blueberries\n\n\n½ cup white sugar\n\n\n¾ cup water\n\n\n1 tablespoon fresh lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups blueberries\n\n\n½ cup white sugar\n\n\n¾ cup water\n\n\n1 tablespoon fresh lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend blueberries and sugar in a food processor until smooth. Strain through a fine-mesh strainer, pressing with a wooden spoon to separate blueberry purée from any chunks of skin or seeds."},{"recipe_directions":"Stir blueberry purée with water and lemon juice in a shallow glass baking dish or tray. Place into the freezer, scraping and stirring the mixture with a fork every hour, until evenly frozen and icy, about 4 hours. Scrape to fluff and lighten the ice crystals, then spoon into chilled glasses to serve."},{"recipe_directions":"Use Splenda instead of white sugar if you prefer."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Blueberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"149\nCalories\n\n\n0g \nFat\n\n\n39g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699658367-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VlxsKl4c8OdRIP7no_KOxlJEctI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2135x0:2137x2):format(webp)/4578897-efa95565a2654701a1f36cdf4c4d8a7f.jpg"
@@ -399,59 +728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21183/squash-and-apple-soup/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Squash and Apple Soup</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons butter\n\n\n1  onion, chopped\n\n\n1 pound butternut squash, peeled and chopped\n\n\n2  apples, peeled and chopped\n\n\n1 small potato, peeled and chopped\n\n\n1 teaspoon grated fresh ginger root\n\n\n1 pinch white pepper\n\n\n4 cups water\n\n\n¼ cup apple cider\n\n\n1 teaspoon packed brown sugar\n\n\n½ cup plain yogurt\n\n\n1 tablespoon finely chopped toasted pecans"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons butter\n\n\n1  onion, chopped\n\n\n1 pound butternut squash, peeled and chopped\n\n\n2  apples, peeled and chopped\n\n\n1 small potato, peeled and chopped\n\n\n1 teaspoon grated fresh ginger root\n\n\n1 pinch white pepper\n\n\n4 cups water\n\n\n¼ cup apple cider\n\n\n1 teaspoon packed brown sugar\n\n\n½ cup plain yogurt\n\n\n1 tablespoon finely chopped toasted pecans'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan melt butter over medium heat; cook onion, stirring occasionally, for 4 minutes or until softened. Add squash, apples, potato, ginger and pepper; stir in water. Cover and bring to boil; reduce heat to low and simmer for 12 to 15 minutes or until potatoes are tender."},{"recipe_directions":"In food processor or blender, puree soup, in batches if necessary, until smooth. Return to saucepan. Stir in apple cider and brown sugar; heat to boiling. Garnish with dollop of yogurt and sprinkle with pecans."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Squash Soup Recipes"},{"recipe_tags":"Butternut Squash Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"140\nCalories\n\n\n3g \nFat\n\n\n29g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699658376-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z_UcWqH3k6lrE9q9vwcoa4oI1ug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/253258-79c6e42a4bd949129d08cca3e7a7f31a.jpg"
@@ -464,59 +789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76202/apple-and-honey-sorbet/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Apple and Honey Sorbet</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 4 hrs 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ pounds Granny Smith apples, cored and thinly sliced\n\n\n1 ½ cups water\n\n\n1 ½ cups sugar\n\n\n1 ½  lemons, juiced\n\n\n1 tablespoon honey"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ pounds Granny Smith apples, cored and thinly sliced\n\n\n1 ½ cups water\n\n\n1 ½ cups sugar\n\n\n1 ½  lemons, juiced\n\n\n1 tablespoon honey'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large, resealable plastic bag or plastic container with a lid, mix apples with the juice of 1/2 lemon. Freeze for several hours or overnight."},{"recipe_directions":"In a small saucepan, bring water and sugar to a boil. Reduce heat, and simmer for 5 minutes. Remove from heat, and stir in honey. Cool completely."},{"recipe_directions":"Place apple in a blender, and liquidize them with juice of 1 lemon and the cooled sugar syrup until as smooth as possible. The peel will add texture, and prevent the mixture from being completely smooth."},{"recipe_directions":"Transfer the mixture to an ice cream machine and freeze according to directions. Leave the sorbet out to soften 10 minutes prior to serving."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699658383-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mnELIexhy_Xe2Z8fntZoHfW8RW4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1124611-19e02e840e9c451dac74827e78bd0740.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237221/banana-and-peanut-butter-4-ingredient-ice-cream/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Banana and Peanut Butter 4-Ingredient 'Ice Cream'</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  slightly overripe bananas, cut into chunks\n\n\n1 teaspoon confectioners' sugar (Optional)\n\n\n½ teaspoon milk\n\n\n2 drops vanilla extract\n\n\n1 teaspoon peanut butter, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2  slightly overripe bananas, cut into chunks\n\n\n1 teaspoon confectioners' sugar (Optional)\n\n\n½ teaspoon milk\n\n\n2 drops vanilla extract\n\n\n1 teaspoon peanut butter, or more to taste"}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange banana chunks on a plate; freeze until solid, about 2 hours."},{"recipe_directions":"Blend frozen bananas, confectioners' sugar, milk, and vanilla extract together in a blender until smooth and creamy; add peanut butter and blend until smooth."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n2g \nFat\n\n\n29g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699658389-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MlIuI0jfyAgGuSyrT2IN1eJFjr0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1000113-3c517909a17748489eb186cd262e0eae.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/142779/fruity-fun-skewers/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Fruity Fun Skewers</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 large strawberries, halved\n\n\n¼  cantaloupe, cut into balls or cubes\n\n\n2  bananas, peeled and cut into chunks\n\n\n1 medium apple, cut into chunks\n\n\n20  skewers"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 large strawberries, halved\n\n\n¼  cantaloupe, cut into balls or cubes\n\n\n2  bananas, peeled and cut into chunks\n\n\n1 medium apple, cut into chunks\n\n\n20  skewers'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Thread strawberries, cantaloupe, banana, and apple pieces alternately onto skewers, placing at least 2 pieces of fruit on each skewer. Arrange skewers decoratively on a serving platter."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"61\nCalories\n\n\n0g \nFat\n\n\n15g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699658398-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Db9XbFCL1u5HT67LD01T2shlFrU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/20020-ce8a5de06df0464591c3c2914ac994cd.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24102/huckleberry-buckle-ii/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Huckleberry Buckle</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch buckle"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups white sugar, divided\n\n\n¼ cup unsalted butter, softened\n\n\n1 cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n½ cup milk\n\n\n2 ½ cups huckleberries\n\n\n½ cup boiling water\n\n\n1 tablespoon unsalted butter, cut into pieces"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups white sugar, divided\n\n\n¼ cup unsalted butter, softened\n\n\n1 cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n½ cup milk\n\n\n2 ½ cups huckleberries\n\n\n½ cup boiling water\n\n\n1 tablespoon unsalted butter, cut into pieces'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C.) Grease the bottom of a 9-inch square pan."},{"recipe_directions":"Combine 1/2 cup sugar and 1/4 cup butter in a large bowl; beat with an electric mixer until creamy."},{"recipe_directions":"Combine flour, baking powder, and salt in a small bowl. Stir flour mixture into butter mixture. Stir in milk; mixture will be thick and lumpy. Spread batter into the prepared pan."},{"recipe_directions":"Combine berries, remaining 3/4 cup sugar, and boiling water in a large bowl; pour over batter in the pan. Dot butter pieces over top."},{"recipe_directions":"Bake in the preheated oven for 45 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Crisps and Crumbles Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"276\nCalories\n\n\n8g \nFat\n\n\n51g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699658404-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/U400oCQStqBdkao1l-8fMmI1kQY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1157728-f551ac529ef9445a8bc07e97e1151922.jpg"
@@ -724,59 +1033,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76988/mango-gazpacho/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Mango Gazpacho</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups 1/4-inch-diced fresh mangoes\n\n\n2 cups orange juice\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1  seedless cucumber, cut into 1/4-inch dice\n\n\n1 small red bell pepper, seeded and cut into 1/4-inch dice\n\n\n1 small onion, cut into 1/4-inch dice \n\n\n2  medium garlic cloves, minced\n\n\n1 small jalapeno pepper, seeded and minced (Optional)\n\n\n3 tablespoons fresh lime juice\n\n\n2 tablespoons chopped fresh parsley, basil or cilantro\n\n\n  Salt and freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups 1/4-inch-diced fresh mangoes\n\n\n2 cups orange juice\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1  seedless cucumber, cut into 1/4-inch dice\n\n\n1 small red bell pepper, seeded and cut into 1/4-inch dice\n\n\n1 small onion, cut into 1/4-inch dice \n\n\n2  medium garlic cloves, minced\n\n\n1 small jalapeno pepper, seeded and minced (Optional)\n\n\n3 tablespoons fresh lime juice\n\n\n2 tablespoons chopped fresh parsley, basil or cilantro\n\n\n  Salt and freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Process mangoes, orange juice and oil in a blender or food processor until pureed. Transfer to a medium bowl, along with remaining ingredients. Season with salt and pepper to taste. Refrigerate until ready to serve. (Can be made several hours before serving.)"},{"recipe_directions":"Copyright 2004 USA WEEKEND and columnist Pam Anderson. All rights reserved."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Gazpacho Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"147\nCalories\n\n\n5g \nFat\n\n\n26g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699658411-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VYn6IflxUxdvTl0JJaJLTcYkRqo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/26868-2beecd464ada4469b575bb2b0c2d05b8.jpg"
@@ -789,59 +1094,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/10315/brownies-in-a-jar/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Brownies In A Jar</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n12 \n\n\nYield:\n2 dozen"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¼ cups white sugar\n\n\n⅔ cup unsweetened cocoa powder\n\n\n½ cup chopped pecans\n\n\n1 ¼ cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ cups white sugar\n\n\n⅔ cup unsweetened cocoa powder\n\n\n½ cup chopped pecans\n\n\n1 ¼ cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour sugar into a clean and dry one quart jar. Press down firmly."},{"recipe_directions":"Add cocoa powder and press down firmly. Pour in chopped pecans, making sure pecans are evenly layered in the jar. Combine flour, baking powder and salt. Pour into jar and seal."},{"recipe_directions":"Attach the following directions to the jar: Empty mix into large bowl. Use your hands to mix thoroughly. Add 3/4 cup of butter or margarine and 4 slightly beaten eggs. Mix until completely blended. Spread batter into a lightly greased or sprayed 9 x 13 inch pan. Bake at 350 degrees F (180 degrees C) for 30 minutes or until done. Cool in pan. Cut into 2 inch squares."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Brownie Recipes"},{"recipe_tags":"Chocolate Brownie Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n4g \nFat\n\n\n51g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699658418-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WDBVezvMrRwGTG7OCsaSHh3zmuM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/9044284-559342be8c2b4687a92ff3c29965d7b4.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228020/breakfast-brownies/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Breakfast Brownies</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 dozen brownies"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups quick-cooking oats\n\n\n¾ cup brown sugar\n\n\n¾ cup flax seed meal\n\n\n½ cup gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  banana, mashed\n\n\n¼ cup rice milk\n\n\n1  egg\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups quick-cooking oats\n\n\n¾ cup brown sugar\n\n\n¾ cup flax seed meal\n\n\n½ cup gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  banana, mashed\n\n\n¼ cup rice milk\n\n\n1  egg\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease an 8x10-inch baking pan."},{"recipe_directions":"Mix oats, brown sugar, flax seed meal, flour, baking powder, cinnamon, and salt together in a bowl. Mix banana, rice milk, egg, and vanilla extract together in a separate bowl. Pour banana mixture into flour mixture; stir to combine. Pour batter into the prepared baking pan."},{"recipe_directions":"Bake brownies in the preheated oven until a toothpick inserted in the center comes out clean, about 20 minutes. Cover pan with a towel to hold in moisture and cool brownies for at least 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"129\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699658425-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aERv1K0JbEkTItYWyRKzGub4CYc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1000953-bd6d203a66924e008a0ba714d485e438.jpg"
@@ -919,59 +1216,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222146/healthier-soft-oatmeal-cookies/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Healthier Soft Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n24 \n\n\nYield:\n2 dozen"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup butter, softened\n\n\n½ cup white sugar\n\n\n¾ cup packed brown sugar\n\n\n2  eggs\n\n\n1 teaspoon vanilla extract\n\n\n1 cup all-purpose flour\n\n\n1 cup whole wheat flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n2 teaspoons ground cinnamon\n\n\n3 cups rolled oats\n\n\n1 cup diced, pitted dates"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup butter, softened\n\n\n½ cup white sugar\n\n\n¾ cup packed brown sugar\n\n\n2  eggs\n\n\n1 teaspoon vanilla extract\n\n\n1 cup all-purpose flour\n\n\n1 cup whole wheat flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n2 teaspoons ground cinnamon\n\n\n3 cups rolled oats\n\n\n1 cup diced, pitted dates'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat butter, white sugar, and brown sugar with an electric mixer in a large bowl until smooth and creamy. Add eggs one at a time, mixing well after each addition. Mix in vanilla."},{"recipe_directions":"Combine flours, baking soda, salt, and cinnamon in a separate bowl; stir into creamed mixture. Fold in oats and dates. Cover and chill dough in the refrigerator for at least 1 hour."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease 2 baking sheets."},{"recipe_directions":"Roll dough into walnut-sized balls and place 2 inches apart onto the prepared baking sheets. Flatten each cookie with a large fork."},{"recipe_directions":"Bake in the preheated oven until cookies are golden brown, 8 to 10 minutes. Cool cookies on the baking sheets for 5 minutes, then transfer to a wire rack to cool completely."},{"recipe_directions":"This recipe is a healthier version of Soft Oatmeal Cookies."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Oatmeal Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n9g \nFat\n\n\n30g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699658433-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RA8ThmrvWSIk-OGC9wOvu2_ceFQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/19125-61dcf1cab4044e179cef30c4d0ed814f.jpg"
@@ -984,59 +1277,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12912/chilled-cantaloupe-soup/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Chilled Cantaloupe Soup</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  cantaloupe - peeled, seeded and cubed\n\n\n2 cups orange juice\n\n\n1 tablespoon fresh lime juice\n\n\n¼ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  cantaloupe - peeled, seeded and cubed\n\n\n2 cups orange juice\n\n\n1 tablespoon fresh lime juice\n\n\n¼ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel, seed, and cube the cantaloupe."},{"recipe_directions":"Place cantaloupe and 1/2 cup orange juice in a blender or food processor; cover, and process until smooth. Transfer to large bowl. Stir in lime juice, cinnamon, and remaining orange juice. Cover, and refrigerate for at least one hour. Garnish with mint if desired."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Fruit Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"69\nCalories\n\n\n0g \nFat\n\n\n16g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699658439-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3xMcxlwcBmTRaPChs8d88OKM9JE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2534052-720186c5b28843508d8f0911e52048e7.jpg"
@@ -1049,59 +1338,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55358/pumpkin-pie-for-dieters/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Pumpkin Pie for Dieters</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n1 8-inch pie"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can pumpkin puree\n\n\n½ cup skim milk\n\n\n1 (1 ounce) package instant sugar-free vanilla pudding mix\n\n\n1 teaspoon pumpkin pie spice\n\n\n1 (8 ounce) container frozen fat-free whipped topping, thawed"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can pumpkin puree\n\n\n½ cup skim milk\n\n\n1 (1 ounce) package instant sugar-free vanilla pudding mix\n\n\n1 teaspoon pumpkin pie spice\n\n\n1 (8 ounce) container frozen fat-free whipped topping, thawed'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk pumpkin purée, milk, and pudding mix together in a medium bowl. Stir in pumpkin pie spice, then fold in 1/2 of the whipped topping. Pour into an 8-inch pie pan and cover with remaining whipped topping. Refrigerate until set, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Pumpkin Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"110\nCalories\n\n\n0g \nFat\n\n\n23g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699658445-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lynsuttVdygfMl0d188kzcmj54M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4460178-4b8bfb6a39ec40baba2626349e51d909.jpg"
@@ -1114,59 +1399,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256825/warm-berry-compote/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Warm Berry Compote</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 35 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups frozen mixed berries\n\n\n½ cup white sugar\n\n\n1 ½ teaspoons finely grated orange zest\n\n\n¼ cup orange juice\n\n\n2 tablespoons cornstarch\n\n\n2 tablespoons water"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups frozen mixed berries\n\n\n½ cup white sugar\n\n\n1 ½ teaspoons finely grated orange zest\n\n\n¼ cup orange juice\n\n\n2 tablespoons cornstarch\n\n\n2 tablespoons water'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together berries, sugar, zest, and juice in a slow cooker. Cook on High until bubbling, about 1 1/2 hours."},{"recipe_directions":"Stir together cornstarch and water in a cup until fully dissolved. Stir into berry mixture. Cook, covered, until thickened, 5 to 10 minutes more. Serve warm or room temperature."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Orange Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"140\nCalories\n\n\n1g \nFat\n\n\n37g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699658453-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Qarv4ZoMjr5sfocKXVMnPgrSnpU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1249x0:1251x2):format(webp)/7606151-52c147801cbf445fad55b941bc0ac3a8.jpg"
@@ -1179,59 +1460,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222128/healthier-best-brownies/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Healthier Best Brownies</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n½ cup white sugar\n\n\n2 eggs\n\n\n⅓ cup applesauce\n\n\n1 teaspoon vanilla extract\n\n\n⅓ cup unsweetened cocoa powder\n\n\n⅓ cup white whole wheat flour\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon baking powder\n\n\n3 tablespoons butter, softened\n\n\n3 tablespoons unsweetened cocoa powder\n\n\n1 tablespoon honey\n\n\n1 teaspoon vanilla extract\n\n\n½ cup confectioners' sugar"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "¼ cup butter\n\n\n½ cup white sugar\n\n\n2 eggs\n\n\n⅓ cup applesauce\n\n\n1 teaspoon vanilla extract\n\n\n⅓ cup unsweetened cocoa powder\n\n\n⅓ cup white whole wheat flour\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon baking powder\n\n\n3 tablespoons butter, softened\n\n\n3 tablespoons unsweetened cocoa powder\n\n\n1 tablespoon honey\n\n\n1 teaspoon vanilla extract\n\n\n½ cup confectioners' sugar"}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease and flour an 8-inch square pan."},{"recipe_directions":"Melt 1/4 cup butter in a large saucepan over low heat. Remove from heat and stir in white sugar, eggs, applesauce, and 1 teaspoon vanilla extract. Beat in 1/3 cup cocoa powder, flour, salt, and baking powder. Spread into prepared pan."},{"recipe_directions":"Bake in preheated oven until brownies are just set in the center, 20 to 25 minutes."},{"recipe_directions":"Combine 3 tablespoons butter, 2 tablespoons cocoa powder, honey, 1 teaspoon vanilla extract, and confectioner's sugar in a bowl; beat until smooth. Frost brownies while they are still warm."},{"recipe_directions":"This recipe is a healthier version of Best Brownies."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Brownie Recipes"},{"recipe_tags":"Chocolate Brownie Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"115\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699658459-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JqKKneuqZVnLMj7e4vMjlrqlr8w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1499x1004:1501x1006):format(webp)/9209161-banana-tempura-Toomie-808-4x3-1-6c2bae11865442f4929aede01a2f8890.jpg"
@@ -1245,59 +1522,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256264/banana-tempura/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Banana Tempura</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups oil for frying\n\n\n1 ½ cups ice-cold water \n\n\n1 (8 ounce) package tempura batter mix\n\n\n3 medium ripe bananas, cut into 5 pieces\n\n\n1 tablespoon confectioners' sugar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "3 cups oil for frying\n\n\n1 ½ cups ice-cold water \n\n\n1 (8 ounce) package tempura batter mix\n\n\n3 medium ripe bananas, cut into 5 pieces\n\n\n1 tablespoon confectioners' sugar, or to taste"}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 350 degrees F (175 degrees C)."},{"recipe_directions":"Pour cold water into a large bowl; sprinkle tempura batter mix on top. Whisk until mix is moistened and large lumps dissolve; batter should still be slightly lumpy."},{"recipe_directions":"Dip 5 banana slices into batter. Fry in hot oil until lightly golden, 2 to 3 minutes. Drain on paper towels. Repeat to dip and fry remaining banana slices."},{"recipe_directions":"Dust with confectioners' sugar to serve."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of tempura batter. The actual amount consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n23g \nFat\n\n\n54g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699658466-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/O2CpaxfPU7rDjdAYcADY4ly-YpU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/21746-afc2105084ed41ddb4256d3356ce3a36.jpg"
@@ -1310,59 +1583,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15941/apple-pie-iv/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Apple Pie with Pre-Cooked Apple Filling</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 medium apples - peeled, cored, and sliced\n\n\n¼ cup white sugar\n\n\n1 tablespoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n1 (14.1 ounce) package pastry for double-crust pie"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 medium apples - peeled, cored, and sliced\n\n\n¼ cup white sugar\n\n\n1 tablespoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n1 (14.1 ounce) package pastry for double-crust pie'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine apples, sugar, cinnamon, and nutmeg in a large pot over low heat. Mix well and cook, stirring frequently, until apples are tender but not mushy, 8 to 12 minutes."},{"recipe_directions":"Place one pie pastry in a 9-inch pie pan. Pour in apple mixture, then cover with remaining pastry. Seal the edges and cut several steam vents in the top."},{"recipe_directions":"Bake in the preheated oven until crust is golden brown, 30 to 40 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Apple Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"279\nCalories\n\n\n11g \nFat\n\n\n47g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699658474-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e4B8ScZsEVc4gW8cA_lIechIBo4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1352415-df5a5017bcc646fe9827757ee7a81b86.jpg"
@@ -1375,59 +1644,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215588/sugar-free-peach-and-banana-cobbler/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sugar-Free Peach and Banana Cobbler</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n1 8-inch cobbler"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  white peaches, pitted and sliced\n\n\n2  bananas, sliced\n\n\n2 tablespoons all-purpose flour\n\n\n3 teaspoons sugar substitute, divided\n\n\n1 cup all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground cinnamon\n\n\n½ cup skim milk\n\n\n1  egg\n\n\n1 tablespoon corn oil\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  white peaches, pitted and sliced\n\n\n2  bananas, sliced\n\n\n2 tablespoons all-purpose flour\n\n\n3 teaspoons sugar substitute, divided\n\n\n1 cup all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground cinnamon\n\n\n½ cup skim milk\n\n\n1  egg\n\n\n1 tablespoon corn oil\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease an 8-inch square baking dish."},{"recipe_directions":"Mix peaches, bananas, 2 tablespoons flour, and 1 teaspoon sugar substitute in a bowl until fruit is coated; spread into the bottom of the prepared baking dish."},{"recipe_directions":"Whisk 1 cup flour, baking powder, salt, and cinnamon in the same bowl used to mix fruit. Stir in skim milk, egg, corn oil, remaining 2 teaspoons sugar substitute, and vanilla until well combined. Pour batter in an even layer over fruit."},{"recipe_directions":"Bake in the preheated oven until cobbler is golden brown and a toothpick inserted into the middle comes out clean, about 30 minutes. Remove to a wire rack and cool in the pan for at least 20 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Peach Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"160\nCalories\n\n\n3g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699658480-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6Zq5EYhlNKc1X7ltmKf10_K6yGM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1497793-0723730c519b4ed6adb44be57901e465.jpg"
@@ -1440,59 +1705,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23031/red-hot-baked-apples/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Red Hot Baked Apples</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 apples"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  apples\n\n\n½ cup packed brown sugar\n\n\n⅓ cup Red Hot cinnamon candies\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  apples\n\n\n½ cup packed brown sugar\n\n\n⅓ cup Red Hot cinnamon candies\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease an 8-inch square pan."},{"recipe_directions":"Remove and reserve the apple tops, then remove all but the bottom 1/2 inch of the cores. Arrange in the baking dish."},{"recipe_directions":"In a small bowl, mix together brown sugar, cinnamon Red Hot candies, and cinnamon. Fill each apple with the mixture, then replace the apple tops. Sprinkle remaining mixture over apples."},{"recipe_directions":"Bake, uncovered, in the preheated oven until apples are tender, 30 to 35 minutes."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n0g \nFat\n\n\n49g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699658488-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PWFuvwX7HBdUL--eJvNSu-HSqJY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/781074-1c9105d2c00d441ead9c20d4f1de8bb5.jpg"
@@ -1505,59 +1766,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9331/spiced-apples/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Spiced Apples</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 Granny Smith apples\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon lemon juice\n\n\n¼ cup cinnamon red hot candies"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 Granny Smith apples\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon lemon juice\n\n\n¼ cup cinnamon red hot candies'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel, core, and slice apples."},{"recipe_directions":"Place all ingredients in microwave-safe bowl. Microwave on high for 15 minutes, stirring each 5 minutes."},{"recipe_directions":"Cover with plastic wrap and let cool or serve warm."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"110\nCalories\n\n\n0g \nFat\n\n\n29g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699658496-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M3PEinhPQbyAiUZVjubwefXgzzQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1023075-53b1e722bc8949fabdcceb7d2602fd34.jpg"
@@ -1570,59 +1827,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/168360/sweet-and-silky-strawberry-sorbet/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sweet and Silky Strawberry Sorbet</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ripe strawberries, hulled and chopped\n\n\n½ cup white sugar\n\n\n1 pinch salt\n\n\n1 ½ teaspoons cornstarch\n\n\n1 ½ teaspoons cold water\n\n\n3 tablespoons lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ripe strawberries, hulled and chopped\n\n\n½ cup white sugar\n\n\n1 pinch salt\n\n\n1 ½ teaspoons cornstarch\n\n\n1 ½ teaspoons cold water\n\n\n3 tablespoons lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place berries in the bowl of a food processor and purée until smooth. Pour mixture into a large saucepan over medium heat. Add sugar and salt; stir until dissolved and bring to a simmer."},{"recipe_directions":"Whisk together cornstarch and cold water in a small bowl; stir into simmering berry mixture. Remove the saucepan from heat, stir in lemon juice, and allow to cool slightly. Refrigerate berry mixture until cold, about 2 hours."},{"recipe_directions":"Freeze in an ice cream maker according to manufacturer's instructions."},{"recipe_directions":"Pour berry mixture into a shallow dish and place in the freezer. Stir every 30 to 60 minutes with a fork until sorbet reaches desired consistency."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Strawberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"140\nCalories\n\n\n0g \nFat\n\n\n36g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699658504-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jRK3GLs-fnxo1ptSRMmZIK0-rZA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/7148847-a948dd1a21174dfa8dd25d87c864768c.jpg"
@@ -1635,59 +1888,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276543/healthier-apple-crisp-for-two/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Healthier Apple Crisp for Two</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2 \n\n\nYield:\n2 8-ounce apple crisps"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 small tart apples, cored and thinly sliced\n\n\n2 tablespoons pure maple syrup\n\n\n½ teaspoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n⅛ teaspoon ground allspice\n\n\n1 pinch salt"},{"recipe_ingredients":"2 tablespoons rolled oats\n\n\n2 tablespoons whole wheat flour\n\n\n1 tablespoon pure maple syrup\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n1 tablespoon unsalted butter, softened"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 small tart apples, cored and thinly sliced\n\n\n2 tablespoons pure maple syrup\n\n\n½ teaspoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n⅛ teaspoon ground allspice\n\n\n1 pinch salt'}, {'recipe_ingredients': '2 tablespoons rolled oats\n\n\n2 tablespoons whole wheat flour\n\n\n1 tablespoon pure maple syrup\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n1 tablespoon unsalted butter, softened'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease two 8-ounce ramekins and place them on a baking sheet."},{"recipe_directions":"Make the filling: Combine apples, maple syrup, lemon juice, vanilla extract, cinnamon, nutmeg, allspice, and salt in a bowl; toss until thoroughly mixed. Divide mixture between the prepared ramekins."},{"recipe_directions":"Prepare the topping: Combine oats, flour, maple syrup, cinnamon, and salt in a bowl; mix until thoroughly combined. Cut in softened butter until mixture resembles coarse crumbs. Sprinkle crumb topping evenly on top of the filling in the ramekins."},{"recipe_directions":"Place baking sheet with ramekins into the preheated oven and bake until apples are tender and the topping is slightly browned, 25 to 30 minutes. Cool for 10 to 15 minutes before serving."},{"recipe_directions":"The apples I used for this recipe were not very juicy. If your apples are on the juicier side, you may want to add 1/2 to 1 teaspoon of flour or cornstarch to the filling to help it set up better. Also, make sure to slice your apples approximately 1/8-inch or thinner to ensure they cook properly."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"236\nCalories\n\n\n7g \nFat\n\n\n45g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699658511-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ITu_L8LZAJrrTddTLCBGLkQnj8I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2048414-cdf1058115ac4f12b9b63185913498a4.jpg"
@@ -1700,59 +1949,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/174343/chocolate-banana-tofu-pudding/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Chocolate-Banana Tofu Pudding</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  banana, broken into chunks\n\n\n1 (12 ounce) package soft silken tofu\n\n\n¼ cup confectioners' sugar\n\n\n5 tablespoons unsweetened cocoa powder\n\n\n3 tablespoons soy milk\n\n\n1 pinch ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1  banana, broken into chunks\n\n\n1 (12 ounce) package soft silken tofu\n\n\n¼ cup confectioners' sugar\n\n\n5 tablespoons unsweetened cocoa powder\n\n\n3 tablespoons soy milk\n\n\n1 pinch ground cinnamon"}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place banana, tofu, sugar, cocoa powder, soy milk, and cinnamon into a blender. Cover, and puree until smooth."},{"recipe_directions":"Pour into individual serving dishes, and refrigerate for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699658518-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a_vqTRLPT8S9sRQ6VxVGrJCuwVY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(728x0:730x2):format(webp)/4561714-07881aec880941c6a438a36f7848b79b.jpg"
@@ -1765,59 +2010,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219432/healthier-apple-pie-by-grandma-ople/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Healthier Apple Pie by Grandma Ople</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup unsalted butter\n\n\n3 tablespoons all-purpose flour\n\n\n½ cup packed brown sugar\n\n\n¼ cup water\n\n\n1 (14.1 ounce) package double-crust pie pastry, thawed\n\n\n8  Granny Smith apples - peeled, cored and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup unsalted butter\n\n\n3 tablespoons all-purpose flour\n\n\n½ cup packed brown sugar\n\n\n¼ cup water\n\n\n1 (14.1 ounce) package double-crust pie pastry, thawed\n\n\n8  Granny Smith apples - peeled, cored and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Melt butter in a saucepan over medium heat. Add flour and stir to form a paste; cook until fragrant, about 1 to 2 minutes. Add brown sugar and water; bring to a boil. Reduce the heat to low and simmer for 3 to 5 minutes. Remove from the heat."},{"recipe_directions":"Press one pastry into the bottom and up the sides of a 9-inch pie pan. Roll out remaining pastry so it will overhang the pie by about 1/2 inch. Cut pastry into eight 1-inch strips."},{"recipe_directions":"Place sliced apples into the bottom crust, forming a slight mound. Lay four pastry strips vertically and evenly spaced over apples, using longer strips in the center and shorter strips at the edges."},{"recipe_directions":"Make a lattice crust: Fold the first and third strips all the way back so they're almost falling off the pie. Lay one of the unused strips perpendicularly over the second and fourth strips, then unfold the first and third strips back into their original position."},{"recipe_directions":"Fold the second and fourth vertical strips back. Lay one of the three unused strips perpendicularly over top. Unfold the second and fourth strips back into their original position."},{"recipe_directions":"Repeat Steps 5 and 6 to weave in remaining two pastry strips. Fold and trim excess dough at the edges as necessary. Pinch to secure."},{"recipe_directions":"Slowly and gently pour sugar mixture over lattice crust, making sure it seeps over sliced apples. Brush some onto lattice, but make sure it doesn't run off the sides."},{"recipe_directions":"Bake in the preheated oven for 15 minutes. Reduce the temperature to 350 degrees F (175 degrees C) and continue baking until apples are soft, 35 to 45 minutes."},{"recipe_directions":"This recipe is a healthier version of Apple Pie by Grandma Ople."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Apple Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"413\nCalories\n\n\n21g \nFat\n\n\n55g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699658525-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vwcNcu8IUTn-r1UvAcVQ1HMp9YE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1434x0:1436x2):format(webp)/9442548-3c3b0dac0540498fb9341c5235cfbdae.jpg"
@@ -1830,59 +2071,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12979/apricot-lentil-soup/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Apricot Lentil Soup</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup dried apricots\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n3 tablespoons olive oil\n\n\n5 cups chicken stock\n\n\n1 ½ cups red lentils\n\n\n3 Roma (plum) tomatoes - peeled, seeded, and chopped\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon dried thyme\n\n\nsalt and ground black pepper to taste\n\n\n2 tablespoons fresh lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup dried apricots\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n3 tablespoons olive oil\n\n\n5 cups chicken stock\n\n\n1 ½ cups red lentils\n\n\n3 Roma (plum) tomatoes - peeled, seeded, and chopped\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon dried thyme\n\n\nsalt and ground black pepper to taste\n\n\n2 tablespoons fresh lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sauté apricots, onion, and garlic in olive oil, about 5 minutes. Add chicken stock and lentils and bring to a boil. Reduce the heat and simmer for 30 minutes."},{"recipe_directions":"Stir in tomatoes and season with cumin, thyme, salt, and pepper to taste. Simmer for 10 minutes."},{"recipe_directions":"Stir in lemon juice. Purée 1/2 of the soup in a blender, then return to the pot. Serve."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"263\nCalories\n\n\n7g \nFat\n\n\n37g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699658533-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hFSY3z7mKjjWU9EkdaG0oaOEbL4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/2358966-whipped-banana-ice-cream-Rock_lobster-4x3-1-f2e52b4089fa4ed994d9229c35b795ba.jpg"
@@ -1896,59 +2133,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242459/whipped-banana-ice-cream/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Whipped Banana "Ice Cream"</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  bananas, peeled and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  bananas, peeled and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sliced bananas in an airtight container and freeze until solid, about 1 1/2 hours."},{"recipe_directions":"Blend frozen bananas in a blender until whipped and smooth."},{"recipe_directions":"You can whip room-temperature bananas first and then freeze them, but they will have to thaw a bit before you can scoop it (it will freeze completely solid). This can be done, but it doesn't work as well."},{"recipe_directions":"You can certainly eat the whipped bananas alone, but I find that it always tastes wonderful to add some peanut butter or chocolate to the blender before whipping to give the \"ice cream\" some depth of flavor. Be creative and choose whatever you like!"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n1g \nFat\n\n\n54g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699658539-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/i2h4sWaf1u1cBdvMebwp9CZjLhs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7181033-6f3dcaf26a29429b83fd1d099c153099.jpg"
@@ -1961,59 +2194,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15865/apple-pie-in-a-jar/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Apple Pie in a Jar</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 30 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 12 hrs\n\n\nTotal Time:\n 14 hrs 20 mins\n\n\nServings:\n56 \n\n\nYield:\n7 quarts"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 cups water\n\n\n4 ½ cups white sugar\n\n\n1 cup cornstarch\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground nutmeg\n\n\n3 tablespoons lemon juice\n\n\n7 quarts peeled, cored and sliced apples"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 cups water\n\n\n4 ½ cups white sugar\n\n\n1 cup cornstarch\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground nutmeg\n\n\n3 tablespoons lemon juice\n\n\n7 quarts peeled, cored and sliced apples'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Inspect seven 1-quart jars for cracks and rings for rust, discarding any defective ones. Immerse in simmering water for 10 minutes. Wash new, unused lids and rings in warm soapy water. Remove the jars and allow to air-dry."},{"recipe_directions":"Meanwhile, combine 10 cups water, sugar, cornstarch, cinnamon, salt, and nutmeg in a large pot. Place over high heat and cook, stirring frequently, until thick and bubbly, 10 to 15 minutes. Remove from the heat and stir in lemon juice."},{"recipe_directions":"Tightly pack apple slices into sterilized jars. Slowly pour syrup over apples, covering them completely and filling to within 1/4 inch of the top. Run a clean knife or thin spatula around the insides of the jars to remove any air bubbles and gently tap each jar on the countertop. Screw lids on jars."},{"recipe_directions":"Place a rack in the bottom of a large stockpot and fill halfway with water. Bring to a boil and lower jars 2 inches apart into the boiling water using a holder. Pour in more boiling water to cover jars by 2 inches. Bring to a rolling boil, cover, and process for 30 minutes."},{"recipe_directions":"Remove the jars from the stockpot and let rest, several inches apart, for 12 to 24 hours. Press the center of each lid with a finger to ensure the lid does not move up or down. Remove the rings for storage and store in a cool, dark area."},{"recipe_directions":"To get 7 quarts of apple slices, we estimate you'll need about 18 pounds of apples."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"104\nCalories\n\n\n0g \nFat\n\n\n27g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699658547-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/crA_R2pthaLR6f1lO9tUdJkezUk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5953289-12381db5765f4e2d98913f1eb26c533d.jpg"
@@ -2026,59 +2255,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222113/healthier-carrot-cake-iii/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Healthier Carrot Cake</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n18 \n\n\nYield:\n1 9x13-inch cake"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large eggs\n\n\n¾ cup vegetable oil\n\n\n1 ½ cups white sugar\n\n\n2 teaspoons vanilla extract\n\n\n2 cups whole wheat pastry flour\n\n\n2 teaspoons baking soda\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n2 teaspoons ground cinnamon\n\n\n3 cups grated carrots\n\n\n1 cup chopped pecans"},{"recipe_ingredients":"¼ cup butter, softened\n\n\n1 (8 ounce) package Neufchatel cheese, softened\n\n\n2 cups confectioners' sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 cup chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large eggs\n\n\n¾ cup vegetable oil\n\n\n1 ½ cups white sugar\n\n\n2 teaspoons vanilla extract\n\n\n2 cups whole wheat pastry flour\n\n\n2 teaspoons baking soda\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n2 teaspoons ground cinnamon\n\n\n3 cups grated carrots\n\n\n1 cup chopped pecans'}, {'recipe_ingredients': "¼ cup butter, softened\n\n\n1 (8 ounce) package Neufchatel cheese, softened\n\n\n2 cups confectioners' sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 cup chopped pecans"}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease and flour a 9x13-inch pan."},{"recipe_directions":"Prepare the cake batter: Beat together eggs, oil, white sugar, and vanilla in a large bowl. Mix in flour, baking soda, baking powder, salt, and cinnamon. Stir in carrots. Fold in pecans. Pour into prepared pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center of the cake comes out clean, 40 to 50 minutes. Let cool in pan for 10 minutes, then turn out onto a wire rack and cool completely."},{"recipe_directions":"Make the frosting: Combine butter, Neufchâtel cheese, confectioners' sugar, and vanilla. Beat until mixture is smooth and creamy. Stir in chopped pecans."},{"recipe_directions":"Spread frosting over completely cooled cake."},{"recipe_directions":"This recipe is a healthier version of this recipe: Carrot Cake."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Carrot Cake Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"400\nCalories\n\n\n25g \nFat\n\n\n42g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699658558-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0bsiATH4KCy3d_PGbabB9ffkxCc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5461089-a6078a87ebd74ff98eeba8acd02d8abc.jpg"
@@ -2091,59 +2316,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254421/chewy-watermelon-rind-candy/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Chewy Watermelon Rind Candy</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  watermelon rind, peeled\n\n\n4 cups water\n\n\n4 cups white sugar\n\n\n½ cup spearmint leaves, coarsely chopped\n\n\n1 tablespoon dried sweet basil"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  watermelon rind, peeled\n\n\n4 cups water\n\n\n4 cups white sugar\n\n\n½ cup spearmint leaves, coarsely chopped\n\n\n1 tablespoon dried sweet basil'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut watermelon rind into 2-inch long, 1-inch wide, and 1/2-inch thick pieces."},{"recipe_directions":"Combine water, sugar, spearmint, and basil in a large pot. Bring to a rolling boil. Strain out spearmint and basil. Add watermelon rind, making sure pieces are completely immersed. Cook until rind is soft, about 5 minutes."},{"recipe_directions":"Drain watermelon pieces and arrange in a single layer on dehydrator trays. Dry according to the manufacturer's instructions until pieces are candied, 6 to 8 hours."},{"recipe_directions":"Stevia, xylitol, dextrose, and other sugar substitutes may be used for this recipe."},{"recipe_directions":"If you are using dried mint, reduce the amount used to 2 tablespoons."},{"recipe_directions":"We have replaced the mint or basil with tea blends to give the syrup and final candy different flavor twists. Green tea with mint was delicious!"},{"recipe_directions":"Eat the candy immediately or store in the freezer for up to a year."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of sugar. The actual amount of sugar consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Candy Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"381\nCalories\n\n\n2g \nFat\n\n\n94g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699658564-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mQCF5rfnSOF7HB_BxgnXIht5YnM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1052529-8cc39291cb794f7886c5f1158215c0c5.jpg"
@@ -2156,59 +2377,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229052/chevre-cheesecake/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Chèvre Cheesecake</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 7 hrs 30 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9-inch cheesecake"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"7 ounces gluten-free gingersnap cookies, finely crushed\n\n\n¼ cup margarine, melted\n\n\n2 pounds chevre (soft goat cheese) at room temperature\n\n\n1 ½ cups white sugar\n\n\n4 large eggs, room temperature\n\n\n¾ cup coconut milk\n\n\n8 ounces cultured coconut milk (coconut milk yogurt)\n\n\n¼ cup gluten-free all-purpose baking flour\n\n\n1 tablespoon gluten-free vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '7 ounces gluten-free gingersnap cookies, finely crushed\n\n\n¼ cup margarine, melted\n\n\n2 pounds chevre (soft goat cheese) at room temperature\n\n\n1 ½ cups white sugar\n\n\n4 large eggs, room temperature\n\n\n¾ cup coconut milk\n\n\n8 ounces cultured coconut milk (coconut milk yogurt)\n\n\n¼ cup gluten-free all-purpose baking flour\n\n\n1 tablespoon gluten-free vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C). Line the bottom of a 9-inch springform pan with parchment paper."},{"recipe_directions":"Stir gingersnap crumbs and melted margarine in a bowl until well combined. Press crumb mixture into the bottom of the prepared pan and place in the freezer."},{"recipe_directions":"Beat chèvre and sugar with an electric mixer in a large bowl until smooth. Add eggs, one at a time, beating until incorporated after each addition. Mix in coconut milk. Mix in coconut yogurt, flour, and vanilla just until incorporated. Pour batter into chilled crust."},{"recipe_directions":"Bake in the preheated oven for 1 hour. Turn the oven off, keep the door closed, and allow cheesecake to cool inside for at least 2 hours. Refrigerate for an additional 4 to 6 hours before serving."},{"recipe_directions":"You can use butter instead of margarine. If gluten isn't an issue, you can use graham crackers instead of gingersnaps."},{"recipe_directions":"Look for coconut milk and yogurt in your supermarket's dairy aisle. I have an allergy to soy, but I bet soy milk and yogurt would work just as well in this recipe."},{"recipe_directions":"If you don't like to buy expensive gluten-free flour, you can go to a store with a good bulk section and mix your own. I find rice flour mixed with oat flour is a good substitute for all-purpose flour in most recipes."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Cheesecake Recipes"},{"recipe_tags":"New York Cheesecake Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"558\nCalories\n\n\n35g \nFat\n\n\n43g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699658571-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0NZfHYEonaw_KMUUiUcNIPomYb0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1060155-9a7c546fa32843319136580c486bb0f8.jpg"
@@ -2221,59 +2438,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229386/cranberry-jell-o-salad/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Cranberry Jell-O Salad with Mandarin Oranges</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups fresh cranberries\n\n\n1 (15 ounce) can mandarin oranges, drained and chopped\n\n\n1 cup pecans\n\n\n1 (15 ounce) can crushed pineapple, drained\n\n\n2 (3 ounce) packages cranberry-flavored gelatin mix (such as Jell-O®)\n\n\n¾ cup white sugar\n\n\n1 cup boiling water\n\n\n1 cup cold water"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups fresh cranberries\n\n\n1 (15 ounce) can mandarin oranges, drained and chopped\n\n\n1 cup pecans\n\n\n1 (15 ounce) can crushed pineapple, drained\n\n\n2 (3 ounce) packages cranberry-flavored gelatin mix (such as Jell-O®)\n\n\n¾ cup white sugar\n\n\n1 cup boiling water\n\n\n1 cup cold water'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cranberries, mandarin oranges, and pecans into a food processor and pulse several times to chop; process mixture until finely ground, about 30 seconds. Transfer mixture into a large bowl."},{"recipe_directions":"Mix pineapple, gelatin, and sugar in a separate bowl. Add boiling water and cold water and stir together until gelatin and sugar have dissolved."},{"recipe_directions":"Pour gelatin mixture into cranberry mixture and stir. Pour into a gelatin mold and refrigerate, 8 hours or overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Cranberry Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n7g \nFat\n\n\n37g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699658577-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tyNzyNsrpYWbB62QPrASoVFWCE8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1043272-abc-pudding-avocado-banana-chocolate-delight-Melissa-Goff-4x3-1-e7a44fdc5f3b453298a95872d9fd53fd.jpg"
@@ -2287,59 +2500,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220827/abc-pudding-avocado-banana-chocolate-delight/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>ABC Pudding - Avocado, Banana, Chocolate Delight</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  ripe avocado, peeled and pitted\n\n\n4  very ripe bananas\n\n\n¼ cup unsweetened cocoa powder, plus more for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  ripe avocado, peeled and pitted\n\n\n4  very ripe bananas\n\n\n¼ cup unsweetened cocoa powder, plus more for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place avocados, bananas, and cocoa powder in a blender; puree until smooth."},{"recipe_directions":"Pour pudding into serving bowls and sprinkle additional cocoa powder on top for garnish."},{"recipe_directions":"Chill in refrigerator for texture and flavor to develop, at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n6g \nFat\n\n\n23g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699658583-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zMgpRvfAdCvJiW3h9sCWpmc8Tqs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4542583-b8250d0376524a67899361ab07352f20.jpg"
@@ -2352,59 +2561,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256723/baked-bananas/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Baked Bananas</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n4  firm bananas, peeled and halved lengthwise\n\n\n¼ cup maple syrup (Optional)\n\n\n1 tablespoon ground cinnamon\n\n\n1 (1 inch) piece fresh ginger, grated\n\n\n1 ½ teaspoons ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n4  firm bananas, peeled and halved lengthwise\n\n\n¼ cup maple syrup (Optional)\n\n\n1 tablespoon ground cinnamon\n\n\n1 (1 inch) piece fresh ginger, grated\n\n\n1 ½ teaspoons ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Spray a baking dish with cooking spray."},{"recipe_directions":"Arrange banana halves in the prepared baking dish. Drizzle maple syrup over bananas and top with cinnamon, ginger, and nutmeg. Cover dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until heated through, 10 to 15 minutes."},{"recipe_directions":"Substitute 1/8 teaspoon dried ginger for the fresh ginger, if desired."},{"recipe_directions":"Mash or puree cooked bananas, if desired."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n1g \nFat\n\n\n42g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699658590-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/y2HZh68f3Ol7z4LkFyM4rRDYNsM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/4572365-e6fb819918c6477ca5b9355b7fa0f578.jpg"
@@ -2417,59 +2622,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24062/apple-pudding/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Apple Pudding</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n1 9x9-inch pudding"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  tart apples - peeled, cored and sliced\n\n\n¼ cup all-purpose flour\n\n\n1 cup sugar\n\n\n1 pinch salt\n\n\n2 cups milk"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  tart apples - peeled, cored and sliced\n\n\n¼ cup all-purpose flour\n\n\n1 cup sugar\n\n\n1 pinch salt\n\n\n2 cups milk'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Toss apples with flour, sugar, and salt; place in a 9x9-inch baking dish. Pour in just enough milk to reach the top of the apples, without covering them."},{"recipe_directions":"Bake in the preheated oven for 45 minutes, or until apples are tender."},{"recipe_directions":"Serve either hot or cold."},{"recipe_directions":"It is good plain but better with milk, cream, whipped cream, or lemon sauce."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n2g \nFat\n\n\n60g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699658599-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XOPHwv2XuRGwMF1Hn2qjA3tlwak=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/397412-5c7142e0b54043ef9a104d4d1547bdf6.jpg"
@@ -2482,59 +2683,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12530/sparkling-grapefruit-pie/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Sparkling Grapefruit Pie</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n1 day 4 hrs\n\n\nTotal Time:\n1 day 4 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (9 inch) pie crust, baked\n\n\n4  pink grapefruit\n\n\n½ cup white sugar\n\n\n1 tablespoon cornstarch\n\n\n¾ cup grapefruit juice\n\n\n1 (3 ounce) package strawberry flavored Jell-O®"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (9 inch) pie crust, baked\n\n\n4  pink grapefruit\n\n\n½ cup white sugar\n\n\n1 tablespoon cornstarch\n\n\n¾ cup grapefruit juice\n\n\n1 (3 ounce) package strawberry flavored Jell-O®'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel grapefruit, removing all pith. Cut up into bite-size pieces. Drain in a strainer for 4 or more hours, collecting the juice. (This can be done the day before.)"},{"recipe_directions":"Combine the sugar, cornstarch, and 3/4 cup juice in a small saucepan; if the collected juice does not measure 3/4 cup, top it off with water. Bring to a boil. Stir in strawberry gelatin. Cool slightly."},{"recipe_directions":"Spread grapefruit in the bottom of the baked shell, and pour gelatin over the fruit. Chill several hours or overnight."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"No-Bake Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n5g \nFat\n\n\n46g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699658605-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xD-UGRoXglZwJaqex9ej8zo3hio=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1421416-348cbf88a28c4bfeb7466fd004e2c941.jpg"
@@ -2547,59 +2744,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223496/fresh-no-bake-fruit-pie/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Fresh No-Bake Fruit Pie</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr 20 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package fresh strawberries, hulled and large berries cut in half\n\n\n1 pint fresh blueberries\n\n\n1 (6 ounce) container fresh raspberries\n\n\n1 (6 ounce) container fresh blackberries\n\n\n1 cup water\n\n\n½ cup white sugar\n\n\n3 tablespoons cornstarch\n\n\n¼ cup water\n\n\n1 (9 inch) prepared shortbread pie crust (such as Keebler®)"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package fresh strawberries, hulled and large berries cut in half\n\n\n1 pint fresh blueberries\n\n\n1 (6 ounce) container fresh raspberries\n\n\n1 (6 ounce) container fresh blackberries\n\n\n1 cup water\n\n\n½ cup white sugar\n\n\n3 tablespoons cornstarch\n\n\n¼ cup water\n\n\n1 (9 inch) prepared shortbread pie crust (such as Keebler®)'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Thoroughly combine strawberries, blueberries, raspberries, and blackberries in a bowl. Scoop out 3/4 cup of mixed berries and place into a saucepan with 1 cup water and sugar; set remaining berries aside. Bring the mixture to a boil and reduce heat to medium-low."},{"recipe_directions":"Whisk cornstarch and 1/4 cup water in a bowl until smooth and stir the cornstarch mixture into the hot fruit syrup; stir until the mixture thickens, about 2 minutes. Let the mixture cool completely, stirring occasionally, about 20 minutes."},{"recipe_directions":"Pour the thickened berry mixture into fresh berries until thoroughly combined; pour berries and sauce into shortbread pie crust. Place in refrigerator until chilled, at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"No-Bake Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n6g \nFat\n\n\n44g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699658612-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dD3Pa6K1E_vEvRx3xQ-gVSiktH8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x0:801x2):format(webp)/8338256-healthier-southern-peach-cobbler-Donna-Canada-4x3-1-90eff94976374ef8956bd952f75e49eb.jpg"
@@ -2613,59 +2806,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219449/healthier-southern-peach-cobbler/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Healthier Southern Peach Cobbler</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  fresh peaches - peeled, pitted, and sliced into thin wedges\n\n\n2 tablespoons brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n1 teaspoon fresh lemon juice\n\n\n2 teaspoons cornstarch\n\n\n1 cup whole wheat pastry flour\n\n\n¼ cup white sugar\n\n\n¼ cup brown sugar\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n6 tablespoons unsalted butter, chilled and cut into small pieces\n\n\n¼ cup boiling water\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  fresh peaches - peeled, pitted, and sliced into thin wedges\n\n\n2 tablespoons brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n1 teaspoon fresh lemon juice\n\n\n2 teaspoons cornstarch\n\n\n1 cup whole wheat pastry flour\n\n\n¼ cup white sugar\n\n\n¼ cup brown sugar\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n6 tablespoons unsalted butter, chilled and cut into small pieces\n\n\n¼ cup boiling water\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Combine peaches, 2 tablespoons brown sugar, 1/4 teaspoon cinnamon, nutmeg, lemon juice, and cornstarch in a large bowl. Toss to coat evenly, and pour into a 2-quart baking dish."},{"recipe_directions":"Bake in the preheated oven for 10 minutes."},{"recipe_directions":"Meanwhile, combine flour, white sugar, 1/4 cup brown sugar, baking powder, and salt in a large bowl. Blend in butter with your fingertips or a pastry blender until mixture resembles coarse meal. Stir in water until just combined."},{"recipe_directions":"Remove peaches from oven, and drop spoonfuls of flour mixture over them."},{"recipe_directions":"Mix together 2 tablespoons brown sugar and 1 teaspoon ground cinnamon. Sprinkle entire cobbler with the sugar and cinnamon mixture. Bake until topping is golden, about 30 minutes."},{"recipe_directions":"This recipe is a healthier version of Southern Peach Cobbler."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Peach Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"446\nCalories\n\n\n18g \nFat\n\n\n71g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699658620-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PSswqGecttGnYXubLUJel3wnu5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/4541446-bd8844bc8ebe41839ad408ccdd4cf167.jpg"
@@ -2678,59 +2867,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27184/apples-by-the-fire/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Apples by the Fire</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  Granny Smith apple, cored\n\n\n1 tablespoon brown sugar\n\n\n¼ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  Granny Smith apple, cored\n\n\n1 tablespoon brown sugar\n\n\n¼ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill the core of the apple with the brown sugar and cinnamon. Wrap the apple in a large piece of heavy foil, twisting the extra foil into a tail for a handle. Place the apple in the coals of a campfire or barbeque and let cook 5 to 10 minutes, until softened. Remove and unwrap, being careful of the hot sugar."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n31g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699658627-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OYT6Q7qi88FH2p3IVS0mVLTKX_0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/420558-282a2918a85a4027822677d2823a2672.jpg"
@@ -2743,59 +2928,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/41234/plum-clafouti/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Plum Clafoutis</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons white sugar, divided\n\n\n14  Italian prune plums, halved and pitted\n\n\n3 large eggs\n\n\n1 ⅓ cups milk\n\n\n⅔ cup all-purpose flour\n\n\n1 ½ teaspoons grated lemon zest\n\n\n2 teaspoons vanilla\n\n\n1 pinch salt\n\n\n½ teaspoon ground cinnamon\n\n\n2 tablespoons confectioners' sugar"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "6 tablespoons white sugar, divided\n\n\n14  Italian prune plums, halved and pitted\n\n\n3 large eggs\n\n\n1 ⅓ cups milk\n\n\n⅔ cup all-purpose flour\n\n\n1 ½ teaspoons grated lemon zest\n\n\n2 teaspoons vanilla\n\n\n1 pinch salt\n\n\n½ teaspoon ground cinnamon\n\n\n2 tablespoons confectioners' sugar"}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease a 10-inch pie plate, and sprinkle 1 tablespoon of sugar over the bottom."},{"recipe_directions":"Arrange plum halves, cut-side down, to cover the entire bottom of the pie plate. Sprinkle 2 tablespoons of sugar on top of plums."},{"recipe_directions":"To make the custard: Combine remaining 3 tablespoons of sugar, eggs, milk, flour, lemon zest, cinnamon, vanilla, and salt in a blender. Process until smooth, about 2 minutes. Pour over arranged plums in the pan."},{"recipe_directions":"Bake in the preheated oven until custard is firm and lightly browned, about 50 to 60 minutes. Let stand 5 minutes before slicing. Dust with confectioners' sugar before serving."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"French"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"186\nCalories\n\n\n3g \nFat\n\n\n35g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699658634-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XUk3KOW7TSok5badtATa_-1-e2k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1421430-a89037d2746243a785124781e2c4fa40.jpg"
@@ -2808,59 +2989,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18984/apple-snow/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Apple Snow</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large apples - peeled, cored and chopped\n\n\n3 tablespoons water\n\n\n1 cup white sugar\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground cloves\n\n\n½ teaspoon vanilla extract\n\n\n1  egg white"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large apples - peeled, cored and chopped\n\n\n3 tablespoons water\n\n\n1 cup white sugar\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground cloves\n\n\n½ teaspoon vanilla extract\n\n\n1  egg white'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan or Dutch oven, combine apples and water and cook, covered, over low heat, until frothy, 15 to 30 minutes. Remove from heat and stir in sugar, cinnamon, cloves and vanilla. Let cool."},{"recipe_directions":"In a medium bowl, whip the egg white until stiff peaks form. Fold into the cooled apple mixture. Serve."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"UK and Ireland"},{"recipe_tags":"English"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n1g \nFat\n\n\n68g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699658641-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BLg27cNIwXth18l4j3G9mC2gh4E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1067559-dbed15f2f2cc447698caa0490caa838e.jpg"
@@ -2873,59 +3050,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215595/ashure/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Ashure</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 45 mins\n\n\nAdditional Time:\n1 day\n\n\nTotal Time:\n1 day 1 hr 55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups fine bulgur\n\n\n½ cup dry garbanzo beans\n\n\n½ cup dry white beans\n\n\n½ cup raisins\n\n\n15 cups water\n\n\n3 cups white sugar\n\n\n¼ cup dried apricots\n\n\n¼ cup orange peel, chopped\n\n\n5  whole cloves"},{"recipe_ingredients":"2 tablespoons sesame seeds, toasted\n\n\n2 tablespoons chopped walnuts\n\n\n2 tablespoons chopped pistachio nuts\n\n\n2 tablespoons dried currants\n\n\n1 tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups fine bulgur\n\n\n½ cup dry garbanzo beans\n\n\n½ cup dry white beans\n\n\n½ cup raisins\n\n\n15 cups water\n\n\n3 cups white sugar\n\n\n¼ cup dried apricots\n\n\n¼ cup orange peel, chopped\n\n\n5  whole cloves'}, {'recipe_ingredients': '2 tablespoons sesame seeds, toasted\n\n\n2 tablespoons chopped walnuts\n\n\n2 tablespoons chopped pistachio nuts\n\n\n2 tablespoons dried currants\n\n\n1 tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make pudding: Place bulgur, garbanzo beans, white beans, and raisins in 4 separate bowls and add water to cover. Let stand overnight."},{"recipe_directions":"The next day, combine garbanzo beans and white beans in a saucepan with water to cover. Bring to a boil; reduce heat to low and simmer, covered, until beans are tender, 1 to 1 1/2 hours. Drain and set aside."},{"recipe_directions":"Drain bulgur and transfer to a large saucepan. Add 15 cups water (3 quarts plus 3 cups) and bring to a boil. Reduce heat to low and simmer until tender, about 15 minutes, skimming and discarding any foam that appears."},{"recipe_directions":"When bulgur has thickened, stir in sugar and bring mixture to a boil. Add cooked beans to bulgur mixture. Stir in drained raisins, apricots, orange peel, and cloves. Reduce heat and simmer until pudding thickens and fruit is tender, about 15 minutes."},{"recipe_directions":"Pour pudding into individual serving bowls. Garnish with sesame seeds, walnuts, pistachios, currants, and cinnamon. Allow pudding to cool, then serve."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"390\nCalories\n\n\n3g \nFat\n\n\n88g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699658648-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fyUS4Z18ZfMN8nRb1-53Sa5fjWw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3395153-69734346092c40388b289166acfb6b16.jpg"
@@ -2938,59 +3111,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20340/power-cookies/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Power Cookies</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n18 \n\n\nYield:\n18 cookies"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups rolled oats\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n½ cup white sugar\n\n\n½ cup brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup chopped pitted dates\n\n\n½ cup flaked coconut\n\n\n½ cup raisins\n\n\n½ cup chopped walnuts"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups rolled oats\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n½ cup white sugar\n\n\n½ cup brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup chopped pitted dates\n\n\n½ cup flaked coconut\n\n\n½ cup raisins\n\n\n½ cup chopped walnuts'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease cookie sheets. Grind the oats in a blender until resembling coarse flour."},{"recipe_directions":"In a medium bowl, mash beans to a smooth paste. Stir in the white sugar, brown sugar and vanilla until well blended. Combine the ground oats, baking powder, baking soda and cinnamon; blend into the bean mixture. Stir in the dates, coconut, raisins and walnuts. Drop dough by heaping spoonfuls onto the prepared cookie sheet."},{"recipe_directions":"Bake for 10 to 15 minutes in the preheated oven, until golden. Cool on baking sheets for 5 minutes then remove to wire racks to cool completely."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Fruit Cookie Recipes"},{"recipe_tags":"Date Cookies"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n4g \nFat\n\n\n33g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699658655-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ox56oEFABQre8v-XlmHLS-8xQZs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(450x738:452x740):format(webp)/3893160-chef-johns-peach-melba-Erin-1x1-1-5dbceeea650440ecaf245a9fd8720c6f.jpg"
@@ -3004,59 +3173,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228645/chef-johns-peach-melba/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Chef John's Peach Melba</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups fresh or frozen raspberries\n\n\n⅓ cup white sugar\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon water\n\n\n⅛ teaspoon balsamic vinegar\n\n\n2 cups white sugar\n\n\n2 cups water\n\n\n2 tablespoons lemon juice\n\n\n1  vanilla bean, split lengthwise\n\n\n3  peaches, halved and pitted\n\n\n6 scoops vanilla ice cream\n\n\n¼ cup sliced almonds"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups fresh or frozen raspberries\n\n\n⅓ cup white sugar\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon water\n\n\n⅛ teaspoon balsamic vinegar\n\n\n2 cups white sugar\n\n\n2 cups water\n\n\n2 tablespoons lemon juice\n\n\n1  vanilla bean, split lengthwise\n\n\n3  peaches, halved and pitted\n\n\n6 scoops vanilla ice cream\n\n\n¼ cup sliced almonds'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine raspberries, 1/3 cup sugar, 1 tablespoon lemon juice, water, and balsamic vinegar in a saucepan over medium heat. Bring to a simmer and cook until sugar dissolves and berries collapse, 2 to 3 minutes. Remove from heat and strain into a bowl. Cool to room temperature, cover and refrigerate until thoroughly chilled."},{"recipe_directions":"Combine 2 cups sugar, 2 cups water, 2 tablespoons lemon juice, and split vanilla bean in a large saucepan and bring to a simmer over medium heat."},{"recipe_directions":"Place peach halves with cut sides up in the syrup and simmer until tender, 5 to 8 minutes per side, basting with the syrup occasionally. Remove from heat and allow to cool in the syrup. Transfer to a bowl, cover, and refrigerate until thoroughly chilled, about 4 hours."},{"recipe_directions":"Remove peach skins and serve each peach half on top of a scoop of ice cream in a bowl. Spoon the raspberry sauce over the top. Garnish with toasted, slivered almonds."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Raspberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"421\nCalories\n\n\n5g \nFat\n\n\n97g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699658662-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/57EFRLEPqslU3QavpKeiyBHjKIM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1432311-c94ee714f4e94232b706e0e6e8210251.jpg"
@@ -3069,59 +3234,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237680/chia-seed-pudding/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Chia Seed Pudding</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs 30 mins\n\n\nTotal Time:\n 8 hrs 45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup unsweetened vanilla-flavored almond milk\n\n\n1 cup vanilla fat-free yogurt\n\n\n2 tablespoons pure maple syrup\n\n\n1 teaspoon pure vanilla extract\n\n\n⅛ teaspoon salt\n\n\n¼ cup chia seeds\n\n\n1 pint strawberries, hulled and chopped\n\n\n4 teaspoons pure maple syrup\n\n\n¼ cup toasted almonds"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup unsweetened vanilla-flavored almond milk\n\n\n1 cup vanilla fat-free yogurt\n\n\n2 tablespoons pure maple syrup\n\n\n1 teaspoon pure vanilla extract\n\n\n⅛ teaspoon salt\n\n\n¼ cup chia seeds\n\n\n1 pint strawberries, hulled and chopped\n\n\n4 teaspoons pure maple syrup\n\n\n¼ cup toasted almonds'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk almond milk, yogurt, 2 tablespoons maple syrup, vanilla, and salt together in a bowl until just blended; add chia seeds, whisk to incorporate, and let the chia seeds soak for 30 minutes."},{"recipe_directions":"Stir the chia seed mixture to redistribute seeds that have settled throughout the mixture. Cover the bowl with plastic wrap and refrigerate 8 hours to overnight."},{"recipe_directions":"Drizzle 4 teaspoons maple syrup over strawberries in a bowl; stir to coat. Add almonds to strawberries; stir."},{"recipe_directions":"Spoon chia seed mixture into 4 bowls; top each with a portion of the strawberry mixture."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n8g \nFat\n\n\n38g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699658670-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -3135,59 +3296,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12205/no-oat-apple-crisp/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Apple Crisp without Oats</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n1 8-inch square crisp"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup all-purpose flour\n\n\n1 cup white sugar\n\n\n1 large egg\n\n\n1 tablespoon baking powder\n\n\n8 Granny Smith apples\n\n\n¼ cup white sugar\n\n\n1 ½ tablespoons ground cinnamon, divided\n\n\n1 tablespoon butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n1 cup white sugar\n\n\n1 large egg\n\n\n1 tablespoon baking powder\n\n\n8 Granny Smith apples\n\n\n¼ cup white sugar\n\n\n1 ½ tablespoons ground cinnamon, divided\n\n\n1 tablespoon butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C). Grease an 8-inch square pan."},{"recipe_directions":"Mix flour, 1 cup sugar, egg, and baking powder together until well combined. The mixture will look like cornmeal."},{"recipe_directions":"Peel, core, and slice apples; mix with 1/2 tablespoon cinnamon. Place apples in the prepared pan. Spread flour mixture over apples. Mix 1/4 cup sugar with remaining 1 tablespoon cinnamon; sprinkle over top of the crisp. Drizzle with melted butter."},{"recipe_directions":"Bake in the preheated oven until golden on top and fruit is bubbling, about 1 hour. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Crisps and Crumbles Recipes"},{"recipe_tags":"Apple Crisps and Crumbles Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n2g \nFat\n\n\n47g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699658677-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/S1NntsDqTAJsk9H1gCEvuzsKe4M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/914136-75b13cba373c43f88387217339f57a44.jpg"
@@ -3200,59 +3357,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15860/green-tomato-mincemeat/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Green Tomato Mincemeat</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 3 hrs\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 4 hrs 45 mins\n\n\nServings:\n120 \n\n\nYield:\n30 pints"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 quarts green tomatoes, minced\n\n\n8 quarts minced, cored apples\n\n\n½ pound beef suet\n\n\n6 pounds brown sugar\n\n\n1 cup distilled white vinegar\n\n\n2 tablespoons salt\n\n\n2 tablespoons ground cinnamon\n\n\n2 tablespoons ground cloves\n\n\n2 tablespoons ground allspice\n\n\n2 pounds raisins\n\n\n32 ounces candied mixed citrus peel (Optional)\n\n\n7 large  orange, peeled, sectioned, and cut into bite-sized pieces \n\n\n2  lemons, finely chopped"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 quarts green tomatoes, minced\n\n\n8 quarts minced, cored apples\n\n\n½ pound beef suet\n\n\n6 pounds brown sugar\n\n\n1 cup distilled white vinegar\n\n\n2 tablespoons salt\n\n\n2 tablespoons ground cinnamon\n\n\n2 tablespoons ground cloves\n\n\n2 tablespoons ground allspice\n\n\n2 pounds raisins\n\n\n32 ounces candied mixed citrus peel (Optional)\n\n\n7 large  orange, peeled, sectioned, and cut into bite-sized pieces \n\n\n2  lemons, finely chopped'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a very large stock pot, combine green tomatoes, apples, suet (or oil), brown sugar, vinegar, chopped oranges, chopped lemons, raisins, and candied peel. Season with salt, cinnamon, cloves and allspice. Cover, and cook over low heat for 3 hours."},{"recipe_directions":"Sterilize 30 (1 pint) canning jars and lids according to manufacturer's instructions."},{"recipe_directions":"Ladle filling into the sterilized jars, leaving 1/2 inch head space. Wipe the jar with a clean, damp cloth. Cover with jars with lids, and screw on jar rings."},{"recipe_directions":"Heat water in a hot water canner. Place jars in rack, and slowly lower jars into canner. The water should cover the jars completely, and should be hot but not boiling. Bring water to a boil, and process for 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Fruit Pies"},{"recipe_tags":"Mincemeat Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n2g \nFat\n\n\n42g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699658684-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dnYu2yv8ZDmv6IuUzv8QuA7aty0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1117986-1c92a862a4b94b24bb26fd7e177d536a.jpg"
@@ -3265,59 +3418,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233822/almond-strawberry-chia-seed-pudding/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Almond Strawberry Chia Seed Pudding</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups almond milk\n\n\n1 (16 ounce) package fresh strawberries, hulled\n\n\n½ cup chia seeds\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups almond milk\n\n\n1 (16 ounce) package fresh strawberries, hulled\n\n\n½ cup chia seeds\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Puree almond milk and strawberries in a blender until smooth; pour into a bowl. Stir chia seeds, honey, and vanilla extract into the strawberry puree."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate until set, about 4 hours."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Nut Dessert Recipes"},{"recipe_tags":"Almond Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n6g \nFat\n\n\n37g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699658691-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/U_voVX_N9QVunmMiahuymuEzS98=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1047x0:1049x2):format(webp)/8251118-ad8b00814b584066b0814dbf0df3523e.jpg"
@@ -3330,59 +3479,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18999/candied-citrus-peel/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Candied Citrus Peel</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n4 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup orange peel, cut into strips\n\n\n½ cup white sugar\n\n\n¼ cup water"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup orange peel, cut into strips\n\n\n½ cup white sugar\n\n\n¼ cup water'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place peel strips in large saucepan and cover with water. Bring to a boil over high heat, then reduce heat and simmer 10 minutes longer. Drain. Repeat this process two more times."},{"recipe_directions":"In a medium saucepan, heat sugar and 1/4 cup water over high heat until boiling. Place peel in sugar mixture, reduce heat and simmer 15 minutes, until sugar is dissolved. Remove peel with slotted spoon and dry on wire rack overnight. Store in airtight container."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Candy Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n0g \nFat\n\n\n31g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699658697-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aXO-_yScvtOUKjqfCp-BmIPjJaw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2676649-banana-lumpia-Baking-Nana-4x3-1-074fa51aebc64b928789667f71bcfd63.jpg"
@@ -3396,59 +3541,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241519/banana-lumpia/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Banana Lumpia</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"oil for deep frying\n\n\n¼ cup brown sugar, or as needed\n\n\n6 large bananas, halved crosswise and then lengthwise\n\n\n24  lumpia wrappers, defrosted\n\n\n1 tablespoon water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'oil for deep frying\n\n\n¼ cup brown sugar, or as needed\n\n\n6 large bananas, halved crosswise and then lengthwise\n\n\n24  lumpia wrappers, defrosted\n\n\n1 tablespoon water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place brown sugar in a shallow bowl. Roll each banana quarter in the brown sugar until coated. Wrap a lumpia wrapper around each coated banana, sealing the last edge to the roll using a spoon or your finger dipped in water. Repeat with the remaining bananas and wrappers."},{"recipe_directions":"Working in batches, fry lumpia in the hot oil until golden brown, about 5 minutes. Transfer cooked lumpia to a paper towel-lined plate using a slotted spoon. Some sugar may leak out the sides of the lumpia while cooling."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"275\nCalories\n\n\n12g \nFat\n\n\n42g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699658704-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c8U-aCQxFcMPvlCg-GA7tYoB-hw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/392637-cb3a88b0485a4eabb37167ab1d2d51a6.jpg"
@@ -3461,59 +3602,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45397/simple-baked-apples/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Simple Baked Apples</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  apples - peeled, cored and sliced\n\n\n½ cup white sugar\n\n\n3 tablespoons all-purpose flour\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon ground cloves\n\n\n½ cup raisins\n\n\n½ cup chopped walnuts\n\n\n½ cup whole milk"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  apples - peeled, cored and sliced\n\n\n½ cup white sugar\n\n\n3 tablespoons all-purpose flour\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon ground cloves\n\n\n½ cup raisins\n\n\n½ cup chopped walnuts\n\n\n½ cup whole milk'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 2 quart casserole dish, or coat with non-stick cooking spray."},{"recipe_directions":"Place apples in a large bowl. In a small bowl, mix together sugar, flour, cinnamon, nutmeg and cloves. Stir spice mixture into apples until evenly distributed. Fold in raisins and walnuts. Spoon into prepared dish. Pour milk evenly over apple mixture."},{"recipe_directions":"Bake in preheated oven for 45 to 60 minutes, or until soft and bubbly. Allow to cool slightly before serving."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"136\nCalories\n\n\n4g \nFat\n\n\n26g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699658711-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s3el_kgCpM2OhTIxcEcsxS_NavU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/641803-de3a920f62484515becb4c30d5aca118.jpg"
@@ -3526,59 +3663,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12156/fresh-strawberry-pie-i/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Fresh Strawberry Pie with Jell-O</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 2 hrs 15 mins\n\n\nTotal Time:\n 2 hrs 35 mins\n\n\nServings:\n16 \n\n\nYield:\n2 8-inch pies"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup white sugar\n\n\n2 tablespoons cornstarch\n\n\n1 cup boiling water\n\n\n2 ½ quarts fresh strawberries, hulled\n\n\n2 (8 inch) pie shells, baked\n\n\n1 (3 ounce) package strawberry-flavored Jell-O gelatin mix"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n2 tablespoons cornstarch\n\n\n1 cup boiling water\n\n\n2 ½ quarts fresh strawberries, hulled\n\n\n2 (8 inch) pie shells, baked\n\n\n1 (3 ounce) package strawberry-flavored Jell-O gelatin mix'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk sugar and cornstarch together in a saucepan until completely blended. Pour in boiling water and cook over medium heat until mixture thickens, 5 to 10 minutes."},{"recipe_directions":"Remove from the heat and stir in gelatin mix until smooth. Let mixture cool to room temperature, 15 to 30 minutes."},{"recipe_directions":"While the mixture is cooling, place strawberries into baked pie shells with the points facing up."},{"recipe_directions":"Pour cooled gelatin mixture over strawberries and refrigerate until set, about 2 hours."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"No-Bake Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"167\nCalories\n\n\n4g \nFat\n\n\n32g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699658721-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eqTre0d08ModwtA2aqpOphXZ-yY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1431x0:1433x2):format(webp)/7927582-04ef19bdcf764b4a805bd13463c03201.jpg"
@@ -3591,59 +3724,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219693/baked-apple-slices/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Baked Apple Slices</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  Granny Smith apple - peeled, cored and sliced\n\n\n2 ½ tablespoons water\n\n\n1 tablespoon cornstarch\n\n\n1 ½ tablespoons white sugar\n\n\n1 pinch ground cinnamon, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  Granny Smith apple - peeled, cored and sliced\n\n\n2 ½ tablespoons water\n\n\n1 tablespoon cornstarch\n\n\n1 ½ tablespoons white sugar\n\n\n1 pinch ground cinnamon, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Spread the apple slices into the bottom of a small baking dish. Whisk the water and cornstarch together in a small bowl; pour over the apple slices and gently stir. Sprinkle the sugar and cinnamon over the apple slices."},{"recipe_directions":"Cook in the preheated oven until the apples are tender, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n44g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699658729-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/T90opTT3E7UFxppN7vEoTrnFMZA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/5574042-73caba8012c148a3b40efe4863cdb8af.jpg"
@@ -3656,59 +3785,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245489/healthy-chocolate-pudding/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Healthy Chocolate Pudding</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond milk\n\n\n¼ cup coconut sugar\n\n\n2 tablespoons cocoa powder\n\n\n1 ½ tablespoons cornstarch\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond milk\n\n\n¼ cup coconut sugar\n\n\n2 tablespoons cocoa powder\n\n\n1 ½ tablespoons cornstarch\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place almond milk, coconut sugar, cocoa powder, cornstarch, and vanilla extract in a saucepan over low heat. Stir together until thick and smooth, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Chocolate Pudding Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n2g \nFat\n\n\n31g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699658734-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AdqsAWo_hUCri7yfFVEl5E-r6wQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4485847-healthier-apple-crisp-ii-House-of-Aqua-4x3-1-8b91d3dc5dfa42858e68e353ea45146e.jpg"
@@ -3722,59 +3847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219433/healthier-apple-crisp-ii/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Healthier Apple Crisp</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n12 \n\n\nYield:\n1 (9x13-inch) apple crisp"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 cups unpeeled, cored, and sliced apples\n\n\n½ cup white sugar\n\n\n1 tablespoon white whole wheat flour\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup water\n\n\n1 cup quick cooking oats\n\n\n1 cup white whole wheat flour\n\n\n½ cup packed brown sugar\n\n\n½ cup chopped walnuts\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n½ cup butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 cups unpeeled, cored, and sliced apples\n\n\n½ cup white sugar\n\n\n1 tablespoon white whole wheat flour\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup water\n\n\n1 cup quick cooking oats\n\n\n1 cup white whole wheat flour\n\n\n½ cup packed brown sugar\n\n\n½ cup chopped walnuts\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n½ cup butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degree C)."},{"recipe_directions":"Place sliced apples in a 9x13-inch pan. Mix white sugar, 1 tablespoon flour, and ground cinnamon together; sprinkle over apples. Pour water evenly over all."},{"recipe_directions":"Combine oats, 1 cup flour, brown sugar, baking powder, baking soda, walnuts and melted butter together. Crumble evenly over the apple mixture."},{"recipe_directions":"Bake in the preheated oven until golden and crisp on top, about 45 minutes."},{"recipe_directions":"This recipe is a healthier version of Apple Crisp"}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"280\nCalories\n\n\n12g \nFat\n\n\n44g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699658740-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CDTzUQf8nAx5fE-VuJUNmHu5HjI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9226687-d9f235fcb4da416d8b16fee1537e5bb1.jpg"
@@ -3787,59 +3908,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222103/healthier-bread-pudding-ii/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Healthier Bread Pudding II</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n12 \n\n\nYield:\n1 8-inch square pan"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 slices day-old whole wheat bread\n\n\n½ cup raisins (Optional)\n\n\n1 large apple, peeled and chopped\n\n\n2 tablespoons butter, melted\n\n\n4  eggs, beaten\n\n\n2 cups low-fat milk\n\n\n½ cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 slices day-old whole wheat bread\n\n\n½ cup raisins (Optional)\n\n\n1 large apple, peeled and chopped\n\n\n2 tablespoons butter, melted\n\n\n4  eggs, beaten\n\n\n2 cups low-fat milk\n\n\n½ cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Break bread into small pieces into an 8-inch square baking dish. Mix in raisins and apple. Drizzle with melted butter."},{"recipe_directions":"Combine eggs, milk, sugar, cinnamon, and vanilla extract in a mixing bowl. Beat until well mixed. Pour over bread and lightly push down with a fork until bread is covered and soaking up egg mixture."},{"recipe_directions":"Bring a kettle of water to a boil. Place bread pudding baking dish into a large roasting pan. Carefully pour boiling water around pan."},{"recipe_directions":"Bake in preheated oven until a knife inserted into the middle of pudding comes out mostly clean, about 45 minutes."},{"recipe_directions":"This recipe is a healthier version of Bread Pudding II."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Specialty Dessert Recipes"},{"recipe_tags":"Bread Pudding Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n5g \nFat\n\n\n24g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699658746-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TEyQ0t-hvVlO5GSXj4Mifg1XoUI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Easy-Banana-Ice-Cream-Yoly-1-by-1-2c288fe789e74b5584ffaff08f7ec9d2.jpg"
@@ -3853,59 +3970,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244441/easy-banana-ice-cream/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Easy Banana Ice Cream</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  peeled and chopped bananas, frozen\n\n\n½ cup skim milk"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  peeled and chopped bananas, frozen\n\n\n½ cup skim milk'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine frozen bananas and 1/4 cup skim milk in a blender; blend for 30 seconds. Add remaining 1/4 cup milk and blend on high speed until smooth, about 30 seconds more."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"126\nCalories\n\n\n0g \nFat\n\n\n30g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699658752-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VjAzUlzAmlWdHckSNi0fCb30JYA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/702303-summer-berry-parfait-with-yogurt-and-granola-OkinawanPrincess-4x3-1-f5f71e602d7a4d40ae3e0f25be86eb79.jpg"
@@ -3919,59 +4032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55813/summer-berry-parfait-with-yogurt-and-granola/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Summer Berry Parfait with Yogurt and Granola</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup sliced strawberries\n\n\n¾ cup blueberries\n\n\n1 (6 ounce) container vanilla yogurt\n\n\n1 tablespoon wheat germ\n\n\n½  banana, sliced\n\n\n⅓ cup granola"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup sliced strawberries\n\n\n¾ cup blueberries\n\n\n1 (6 ounce) container vanilla yogurt\n\n\n1 tablespoon wheat germ\n\n\n½  banana, sliced\n\n\n⅓ cup granola'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Layer 1/4 cup strawberries, 1/4 cup blueberries, 1/3 container yogurt, 1/3 tablespoon wheat germ, 1/3 of the sliced banana, and about 2 tablespoons of granola in a large bowl. Continue to build the parfait, repeating the layers until all of the ingredients are used completely."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"521\nCalories\n\n\n14g \nFat\n\n\n87g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699658759-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BV4_k3cxxEBf8dOlyAqNADP5ozI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x599:1001x601):format(webp)/6629911-fresh-strawberry-granita-Yoly-1x1-1-5c3d1a9a4a2b490b81ee3aa096ef1182.jpg"
@@ -3985,59 +4094,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233726/fresh-strawberry-granita/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Fresh Strawberry Granita</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 3 hrs 45 mins\n\n\nTotal Time:\n 4 hrs 5 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ripe strawberries, hulled and halved\n\n\n1 cup water\n\n\n⅓ cup white sugar, or to taste\n\n\n½ teaspoon lemon juice (Optional)\n\n\n¼ teaspoon balsamic vinegar (Optional)\n\n\n1 tiny pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ripe strawberries, hulled and halved\n\n\n1 cup water\n\n\n⅓ cup white sugar, or to taste\n\n\n½ teaspoon lemon juice (Optional)\n\n\n¼ teaspoon balsamic vinegar (Optional)\n\n\n1 tiny pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse strawberries with cold water, then drain."},{"recipe_directions":"Place berries into a blender with water, sugar, lemon juice, balsamic vinegar, and salt. Pulse several times to get the mixture moving, then blend until smooth, about 1 minute. Pour into a large baking dish; the mixture should only be about 3/8 inch deep in the dish."},{"recipe_directions":"Place the uncovered dish into the freezer until the mixture barely begins to freeze around the edges, about 45 minutes, it will still be slushy in the center."},{"recipe_directions":"Keeping the mixture in the freezer, use a fork to lightly stir the frozen crystals from the edges in towards the center; mix thoroughly. Close the freezer and continue to chill until granita is nearly frozen, 30 to 40 more minutes. Mix lightly again with a fork as before, scraping the crystals loose. Repeat freezing and stirring with the fork three to four more times until the crystals are separate and the granita looks dry and fluffy."},{"recipe_directions":"Portion granita into small serving bowls to serve."},{"recipe_directions":"This will work with other fruit and berry purees."},{"recipe_directions":"Hull strawberries by using the tip of small, sharp paring knife inserted at a 45-degree angle near the hull. Rotate the berry to cut out a small cone containing the hull. It saves a little bit of fruit from each strawberry."},{"recipe_directions":"Freezing times will vary greatly depending on how cold, empty, large, etc., your freezer is. Just keep checking and forking!"},{"recipe_directions":"This recipe appeared in Allrecipes Magazine and was modified to include sparkling rosé or prosecco and fresh mint leaves."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"69\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699658766-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16375/healthy-recipes/desserts/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2HaAnpOASzxT0o2G9_jTHHFF2AU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/968144-dec1bb7d82c34f0cb206c36e8bee7770.jpg"
@@ -4050,42 +4155,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219442/healthier-creamy-rice-pudding/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Healthier Creamy Rice Pudding</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups water\n\n\n¾ cup uncooked brown rice\n\n\n2 cups low-fat milk, divided\n\n\n⅓ cup white sugar\n\n\n¼ teaspoon salt\n\n\n1 large egg, beaten\n\n\n⅔ cup raisins\n\n\n1 tablespoon butter\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups water\n\n\n¾ cup uncooked brown rice\n\n\n2 cups low-fat milk, divided\n\n\n⅓ cup white sugar\n\n\n¼ teaspoon salt\n\n\n1 large egg, beaten\n\n\n⅔ cup raisins\n\n\n1 tablespoon butter\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water and rice over high heat in a saucepan and bring to a boil. Reduce heat to medium-low, cover, and simmer until tender, about 45 minutes."},{"recipe_directions":"Combine cooked rice, 1 1/2 cups milk, sugar, and salt in a clean saucepan. Cook over medium heat until thick and creamy, 15 to 20 minutes."},{"recipe_directions":"Stir in remaining 1/2 cup milk, beaten egg, and raisins. Cook 2 minutes more, stirring constantly. Remove from heat and stir in butter and vanilla. Serve warm."},{"recipe_directions":"This recipe may also be made using sugar-like sweeteners (such as Splenda) instead of sugar. Use 1/3 the amount. This is an easy way to enjoy this great creamy recipe while cutting down on sugar and calories."},{"recipe_directions":"This recipe is a healthier version of Creamy Rice Pudding."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Rice"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"363\nCalories\n\n\n6g \nFat\n\n\n69g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>